--- a/data/MauExample/DuKienTruyThu_06-2015.xlsx
+++ b/data/MauExample/DuKienTruyThu_06-2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -137,15 +137,6 @@
   </si>
   <si>
     <t>Trần Minh Nhựt</t>
-  </si>
-  <si>
-    <t>0300235838</t>
-  </si>
-  <si>
-    <t>Ban hang trang</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá Ấm</t>
   </si>
 </sst>
 </file>
@@ -572,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,35 +1023,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7">
-        <v>7850000</v>
-      </c>
-      <c r="F18">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
